--- a/P10/Scrum_Sprint_4.xlsx
+++ b/P10/Scrum_Sprint_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\cse1325\P10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6B67CB-04CA-41B5-ACE8-780ECD3AC500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1223BDF-12B3-4B6F-A019-82FA289350E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="163">
   <si>
     <t>Product Name:</t>
   </si>
@@ -528,6 +528,9 @@
   </si>
   <si>
     <t>create new dialogs to add customers</t>
+  </si>
+  <si>
+    <t>In Test</t>
   </si>
 </sst>
 </file>
@@ -688,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -818,9 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3717,8 +3717,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ101"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4659,7 +4659,7 @@
         <v>4</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>31</v>
@@ -9168,7 +9168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -9446,7 +9446,7 @@
         <v>92</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="39" t="s">
         <v>161</v>
       </c>
       <c r="E17" s="37" t="s">
